--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zee/development/CS151_labs/PA1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/245c9465c819a847/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0D32F8-6D7A-7B45-9670-B8699C8948C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30CD32E4-EC7B-42A6-83A3-CCCC562EF1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="67920" windowHeight="28300" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="19488" windowHeight="13776" xr2:uid="{06D59A3E-0710-42F4-BF34-8D0CAD1DD760}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,9 +36,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>You need to create your own tests</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Users name</t>
+  </si>
+  <si>
+    <t>Welcome message with users name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age is 10 </t>
+  </si>
+  <si>
+    <t>Age is 65</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>Elephant</t>
+  </si>
+  <si>
+    <t>0.5 hour trip</t>
+  </si>
+  <si>
+    <t>4 hour trip</t>
+  </si>
+  <si>
+    <t>Approach</t>
+  </si>
+  <si>
+    <t>Back away</t>
+  </si>
+  <si>
+    <t>You are young! Let's make sure the adventure is safe.</t>
+  </si>
+  <si>
+    <t>Experience is on your side! Let's embark on a nice journey.</t>
+  </si>
+  <si>
+    <t>Oh! A tiger is a fierce choice. Let's head toward the deep jungle.</t>
+  </si>
+  <si>
+    <t>An elephant! We will go towards the riverbank where they gather.</t>
+  </si>
+  <si>
+    <t>A quick cruise, eh? We'll have to skip all the fun.</t>
+  </si>
+  <si>
+    <t>A long cruise! We can explore the depths of the jungle.</t>
+  </si>
+  <si>
+    <t>You bravely approach the animal. Do you want to offer it food?</t>
+  </si>
+  <si>
+    <t>You decide its best to keep your distance and enjoy the rest of the ride!</t>
   </si>
 </sst>
 </file>
@@ -45,9 +104,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -72,11 +131,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -105,39 +161,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -189,7 +245,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -300,13 +356,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -315,6 +364,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -379,39 +435,131 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF6E1F2-B43E-D343-BB9B-DE90F40B65C5}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AB4026-99CE-4634-8426-63F1BF56BCE3}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.109375" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>